--- a/Step_1/Binding_energyV5.xlsx
+++ b/Step_1/Binding_energyV5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsenf\Documents\BOX\Box Sync\Nolan_Paper\Final_Code_Apr_24_2018\Final_Code_Apr_24_2018\Step_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0199619-D21C-447C-9458-4AE53DDB57AA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D0A950E-BAD3-4B99-AFA6-CEC682346987}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -489,13 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -503,6 +496,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -2016,7 +2016,7 @@
   <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2175,29 +2175,29 @@
       <c r="N5" s="12"/>
     </row>
     <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="46">
+      <c r="B6" s="43">
         <v>415.5</v>
       </c>
-      <c r="C6" s="46">
+      <c r="C6" s="43">
         <f>-824.2/2</f>
         <v>-412.1</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="43">
         <f>B6-C6</f>
         <v>827.6</v>
       </c>
-      <c r="E6" s="47">
+      <c r="E6" s="44">
         <f t="shared" si="0"/>
         <v>8.5774990931232828</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="43">
         <f t="shared" si="1"/>
         <v>4.3063688656267818</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="43">
         <f t="shared" si="2"/>
         <v>-4.271130227496502</v>
       </c>
@@ -2206,27 +2206,27 @@
       <c r="N6" s="12"/>
     </row>
     <row r="7" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="46">
+      <c r="B7" s="43">
         <v>670.85</v>
       </c>
-      <c r="C7" s="46">
+      <c r="C7" s="43">
         <v>-274.13</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="43">
         <v>945.95</v>
       </c>
-      <c r="E7" s="47">
+      <c r="E7" s="44">
         <f t="shared" si="0"/>
         <v>9.8041146292169774</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="43">
         <f t="shared" si="1"/>
         <v>6.9528942322640832</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="43">
         <f t="shared" si="2"/>
         <v>-2.841167020780432</v>
       </c>
@@ -2235,28 +2235,28 @@
       <c r="N7" s="12"/>
     </row>
     <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="46">
+      <c r="A8" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="43">
         <v>650.6</v>
       </c>
-      <c r="C8" s="46">
+      <c r="C8" s="43">
         <v>-305</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="43">
         <f>B8-C8</f>
         <v>955.6</v>
       </c>
-      <c r="E8" s="47">
+      <c r="E8" s="44">
         <f t="shared" si="0"/>
         <v>9.9041301756749753</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="43">
         <f t="shared" si="1"/>
         <v>6.7430170492822725</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="43">
         <f t="shared" si="2"/>
         <v>-3.1611131263927037</v>
       </c>
@@ -2381,28 +2381,28 @@
       <c r="N12" s="12"/>
     </row>
     <row r="13" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="46">
+      <c r="A13" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="43">
         <v>283.3</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="43">
         <v>-520</v>
       </c>
-      <c r="D13" s="46">
+      <c r="D13" s="43">
         <f>B13-C13</f>
         <v>803.3</v>
       </c>
-      <c r="E13" s="47">
+      <c r="E13" s="44">
         <f t="shared" si="0"/>
         <v>8.3256464735451097</v>
       </c>
-      <c r="F13" s="46">
+      <c r="F13" s="43">
         <f t="shared" si="1"/>
         <v>2.9362077006788621</v>
       </c>
-      <c r="G13" s="46">
+      <c r="G13" s="43">
         <f t="shared" si="2"/>
         <v>-5.3894387728662485</v>
       </c>
@@ -2410,29 +2410,29 @@
       <c r="N13" s="12"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="46">
+      <c r="B14" s="43">
         <v>515.5</v>
       </c>
-      <c r="C14" s="46">
+      <c r="C14" s="43">
         <f>-1550.6/2</f>
         <v>-775.3</v>
       </c>
-      <c r="D14" s="46">
+      <c r="D14" s="43">
         <f>B14-C14</f>
         <v>1290.8</v>
       </c>
-      <c r="E14" s="47">
+      <c r="E14" s="44">
         <f t="shared" si="0"/>
         <v>13.378245323107219</v>
       </c>
-      <c r="F14" s="46">
+      <c r="F14" s="43">
         <f t="shared" si="1"/>
         <v>5.3427993988702909</v>
       </c>
-      <c r="G14" s="46">
+      <c r="G14" s="43">
         <f t="shared" si="2"/>
         <v>-8.0354459242369281</v>
       </c>
@@ -2440,58 +2440,58 @@
       <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="48"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
     </row>
     <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="48"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
     </row>
     <row r="22" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="E22" s="51"/>
+      <c r="A22" s="47"/>
+      <c r="E22" s="48"/>
     </row>
     <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="50"/>
-      <c r="E23" s="51"/>
+      <c r="A23" s="47"/>
+      <c r="E23" s="48"/>
     </row>
     <row r="24" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50"/>
+      <c r="A24" s="47"/>
       <c r="D24" s="24"/>
-      <c r="E24" s="51"/>
+      <c r="E24" s="48"/>
     </row>
     <row r="25" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50"/>
+      <c r="A25" s="47"/>
       <c r="D25" s="24"/>
-      <c r="E25" s="51"/>
+      <c r="E25" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2527,26 +2527,26 @@
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="44"/>
+      <c r="F1" s="50"/>
       <c r="G1" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="45" t="s">
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
       <c r="R1" s="1"/>
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
